--- a/דייוח שעות - 4.4.xlsx
+++ b/דייוח שעות - 4.4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a39ca50363e4117/מסמכים/שיבא - סטטיסטיקה/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ido\sheba stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{96FC6EFC-8451-41E1-932F-0F568C8C8041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{781DB3C6-3190-4BC0-B469-4A12492E7235}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C668972-64A9-490B-BDAF-E101598982DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
